--- a/resources/practiceStimuli.xlsx
+++ b/resources/practiceStimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\Desktop\Experiment Psycholinguïstiek\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medej\Documents\EXP Psycholinguistics and Language Disorders\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24784753-406E-4044-92BB-466302CCD71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAE32F8-3948-439D-88A6-1D2947AAEF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>stimID</t>
   </si>
@@ -42,24 +42,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Tom heeft veel in zijn mars.</t>
-  </si>
-  <si>
-    <t>Tom kan en weet veel dingen.</t>
-  </si>
-  <si>
-    <t>Tom kan heel ver wandelen.</t>
-  </si>
-  <si>
-    <t>Tom praat veel.</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Laura schopt het ver.</t>
   </si>
   <si>
@@ -70,18 +52,6 @@
   </si>
   <si>
     <t>Laura overtreedt een regel.</t>
-  </si>
-  <si>
-    <t>Hannah staat met haar mond vol brood.</t>
-  </si>
-  <si>
-    <t>Hannah weet niet wat ze moet zeggen.</t>
-  </si>
-  <si>
-    <t>Hannah heeft haar mond vol met brood.</t>
-  </si>
-  <si>
-    <t>Hannah is gulzig en eet veel.</t>
   </si>
   <si>
     <t>Leon zit in de bus.</t>
@@ -429,28 +399,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -459,105 +429,59 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
